--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NY.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>STATE</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Super Match 3</t>
-  </si>
-  <si>
-    <t>7-11-21</t>
   </si>
   <si>
     <t>Loose Change</t>
@@ -674,7 +671,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,11 +849,11 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>1302</v>
+      <c r="D9" t="s">
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>2205</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -870,13 +867,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>2205</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -890,13 +887,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -910,16 +907,16 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
         <v>22</v>
       </c>
+      <c r="D12">
+        <v>1366</v>
+      </c>
       <c r="E12">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -927,19 +924,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>1366</v>
+        <v>1297</v>
       </c>
       <c r="E13">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -947,16 +944,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
       <c r="D14">
-        <v>1297</v>
+        <v>1362</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -967,16 +964,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <v>1362</v>
+        <v>1281</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -987,16 +984,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1281</v>
+        <v>1351</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1007,16 +1004,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17">
-        <v>1351</v>
+        <v>1377</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1027,16 +1024,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1047,16 +1044,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19">
-        <v>1370</v>
+        <v>1322</v>
       </c>
       <c r="E19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1067,16 +1064,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20">
-        <v>1322</v>
+        <v>1290</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1087,16 +1084,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
-        <v>1290</v>
+        <v>1343</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1107,16 +1104,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22">
-        <v>1343</v>
+        <v>1358</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1127,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
       <c r="D23">
-        <v>1358</v>
+        <v>1332</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1147,13 +1144,13 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="D24">
-        <v>1332</v>
+      <c r="D24" t="s">
+        <v>37</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1167,16 +1164,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1187,16 +1184,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1207,16 +1204,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1227,16 +1224,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
         <v>44</v>
       </c>
+      <c r="D28">
+        <v>1327</v>
+      </c>
       <c r="E28">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1247,19 +1244,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
       </c>
       <c r="D29">
-        <v>1327</v>
+        <v>1342</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1267,19 +1264,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>1342</v>
+        <v>1263</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1287,16 +1284,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31">
-        <v>1263</v>
+        <v>1357</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1307,16 +1304,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="D32">
-        <v>1357</v>
+        <v>1301</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1327,16 +1324,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
       </c>
       <c r="D33">
-        <v>1301</v>
+        <v>1340</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1347,16 +1344,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>51</v>
       </c>
       <c r="D34">
-        <v>1340</v>
+        <v>1361</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1367,13 +1364,13 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>52</v>
       </c>
       <c r="D35">
-        <v>1361</v>
+        <v>1376</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -1387,16 +1384,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>53</v>
       </c>
       <c r="D36">
-        <v>1376</v>
+        <v>1321</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1407,16 +1404,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>54</v>
       </c>
       <c r="D37">
-        <v>1321</v>
+        <v>1346</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1427,16 +1424,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>1346</v>
+        <v>1274</v>
       </c>
       <c r="E38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1447,13 +1444,13 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
       </c>
       <c r="D39">
-        <v>1274</v>
+        <v>1331</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1467,16 +1464,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
       </c>
       <c r="D40">
-        <v>1331</v>
+        <v>1296</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1487,16 +1484,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
       </c>
       <c r="D41">
-        <v>1296</v>
+        <v>1325</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1507,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
       </c>
       <c r="D42">
-        <v>1325</v>
+        <v>1360</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1527,13 +1524,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
       </c>
       <c r="D43">
-        <v>1360</v>
+        <v>1316</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1547,16 +1544,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
         <v>62</v>
       </c>
       <c r="D44">
-        <v>1316</v>
+        <v>1338</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1567,16 +1564,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
       </c>
       <c r="D45">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1587,16 +1584,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>777</v>
       </c>
       <c r="D46">
-        <v>1345</v>
+        <v>1319</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1607,16 +1604,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47">
-        <v>777</v>
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
       </c>
       <c r="D47">
-        <v>1319</v>
+        <v>1350</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1627,13 +1624,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
       </c>
       <c r="D48">
-        <v>1350</v>
+        <v>1288</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1647,16 +1644,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
       </c>
       <c r="D49">
-        <v>1288</v>
+        <v>1375</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1667,16 +1664,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
       </c>
       <c r="D50">
-        <v>1375</v>
+        <v>1336</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1687,16 +1684,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
       </c>
       <c r="D51">
-        <v>1336</v>
+        <v>1369</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1707,16 +1704,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>69</v>
       </c>
       <c r="D52">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1727,16 +1724,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
         <v>70</v>
       </c>
       <c r="D53">
-        <v>1339</v>
+        <v>1356</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1747,13 +1744,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
         <v>71</v>
       </c>
       <c r="D54">
-        <v>1356</v>
+        <v>1292</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1767,19 +1764,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>72</v>
       </c>
       <c r="D55">
-        <v>1292</v>
+        <v>1320</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1787,19 +1784,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
       </c>
       <c r="D56">
-        <v>1320</v>
+        <v>1349</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1807,19 +1804,19 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
       </c>
-      <c r="D57">
-        <v>1349</v>
+      <c r="D57" t="s">
+        <v>75</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1827,19 +1824,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1847,16 +1844,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" t="s">
         <v>78</v>
       </c>
+      <c r="D59">
+        <v>1300</v>
+      </c>
       <c r="E59">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1867,13 +1864,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
         <v>79</v>
       </c>
       <c r="D60">
-        <v>1300</v>
+        <v>1251</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1887,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
         <v>80</v>
       </c>
-      <c r="D61">
-        <v>1251</v>
+      <c r="D61" t="s">
+        <v>81</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1907,19 +1904,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D62">
+        <v>1330</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1927,19 +1924,19 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
         <v>84</v>
       </c>
       <c r="D63">
-        <v>1330</v>
+        <v>1359</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1947,16 +1944,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>85</v>
       </c>
       <c r="D64">
-        <v>1359</v>
+        <v>1374</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1967,16 +1964,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>86</v>
       </c>
       <c r="D65">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>25094</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1987,16 +1984,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
         <v>87</v>
       </c>
       <c r="D66">
-        <v>1365</v>
+        <v>1324</v>
       </c>
       <c r="E66">
-        <v>25094</v>
+        <v>657</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2007,16 +2004,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
         <v>88</v>
       </c>
       <c r="D67">
-        <v>1324</v>
+        <v>1344</v>
       </c>
       <c r="E67">
-        <v>657</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2027,16 +2024,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
         <v>89</v>
       </c>
-      <c r="D68">
-        <v>1344</v>
+      <c r="D68" t="s">
+        <v>90</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2047,13 +2044,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -2067,16 +2064,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" t="s">
         <v>93</v>
       </c>
+      <c r="D70">
+        <v>1311</v>
+      </c>
       <c r="E70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2087,16 +2084,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D71">
-        <v>1311</v>
+        <v>1368</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2107,19 +2104,19 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
         <v>96</v>
       </c>
       <c r="D72">
-        <v>1368</v>
+        <v>1315</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2127,19 +2124,19 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73">
-        <v>1315</v>
+        <v>98</v>
+      </c>
+      <c r="D73" t="s">
+        <v>99</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2147,16 +2144,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D74">
+        <v>1261</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2167,16 +2164,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
         <v>102</v>
       </c>
       <c r="D75">
-        <v>1261</v>
+        <v>1355</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2187,16 +2184,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D76">
-        <v>1355</v>
+        <v>1270</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2207,38 +2204,18 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
         <v>105</v>
       </c>
       <c r="D77">
-        <v>1270</v>
+        <v>1299</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78">
-        <v>1299</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NY.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NY.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>STATE</t>
   </si>
@@ -44,144 +44,138 @@
     <t>5X The Win</t>
   </si>
   <si>
-    <t>2019-02-26</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>$50 Mayhem</t>
   </si>
   <si>
     <t>The Money Game</t>
   </si>
   <si>
-    <t>$50 Mayhem</t>
+    <t>Triple Tripler</t>
+  </si>
+  <si>
+    <t>Super Match 3</t>
+  </si>
+  <si>
+    <t>Loose Change</t>
+  </si>
+  <si>
+    <t>1111, 1335</t>
+  </si>
+  <si>
+    <t>Instant Take 5</t>
+  </si>
+  <si>
+    <t>1103, 1363</t>
   </si>
   <si>
     <t>9's In A Line Tripler</t>
   </si>
   <si>
+    <t>Lucky 7's</t>
+  </si>
+  <si>
+    <t>1101, 1329</t>
+  </si>
+  <si>
+    <t>Season's Greetings Gift Tags</t>
+  </si>
+  <si>
     <t>5X The Bucks</t>
   </si>
   <si>
     <t>Frosty Fun</t>
   </si>
   <si>
-    <t>Super Match 3</t>
-  </si>
-  <si>
-    <t>Loose Change</t>
-  </si>
-  <si>
-    <t>1111, 1335</t>
-  </si>
-  <si>
-    <t>Instant Take 5</t>
-  </si>
-  <si>
-    <t>1103, 1363</t>
-  </si>
-  <si>
-    <t>Lucky 7's</t>
-  </si>
-  <si>
-    <t>1101, 1329</t>
-  </si>
-  <si>
-    <t>Season's Greetings Gift Tags</t>
-  </si>
-  <si>
-    <t>2019-01-18</t>
+    <t>2019-04-01</t>
   </si>
   <si>
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>Money Tree Tripler</t>
+  </si>
+  <si>
+    <t>Champions of Cash</t>
+  </si>
+  <si>
+    <t>$40,000 Double Match</t>
+  </si>
+  <si>
     <t>Neon 10s</t>
   </si>
   <si>
-    <t>Money Tree Tripler</t>
-  </si>
-  <si>
-    <t>Champions of Cash</t>
-  </si>
-  <si>
-    <t>Deluxe Bucks</t>
+    <t>Cashword</t>
+  </si>
+  <si>
+    <t>1286, 1334</t>
+  </si>
+  <si>
+    <t>Cashword Doubler</t>
+  </si>
+  <si>
+    <t>1337, 1364</t>
+  </si>
+  <si>
+    <t>Bingo Doubler</t>
+  </si>
+  <si>
+    <t>1140, 1341</t>
+  </si>
+  <si>
+    <t>Red Hot Cash</t>
   </si>
   <si>
     <t>$100 Win!</t>
   </si>
   <si>
+    <t>$100 Mayhem</t>
+  </si>
+  <si>
+    <t>Birthday Bucks</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>Win For Life</t>
+  </si>
+  <si>
+    <t>1124, 1323</t>
+  </si>
+  <si>
     <t>10X The Play</t>
   </si>
   <si>
-    <t>Luck</t>
-  </si>
-  <si>
-    <t>Red Hot Cash</t>
-  </si>
-  <si>
-    <t>Birthday Bucks</t>
-  </si>
-  <si>
-    <t>$100 Doubler</t>
-  </si>
-  <si>
-    <t>$100 Mayhem</t>
-  </si>
-  <si>
-    <t>Win For Life</t>
-  </si>
-  <si>
-    <t>1124, 1323</t>
-  </si>
-  <si>
-    <t>Cashword</t>
-  </si>
-  <si>
-    <t>1286, 1334</t>
-  </si>
-  <si>
-    <t>Cashword Doubler</t>
-  </si>
-  <si>
-    <t>1337, 1364</t>
-  </si>
-  <si>
-    <t>Bingo Doubler</t>
-  </si>
-  <si>
-    <t>1140, 1341</t>
-  </si>
-  <si>
     <t>Fat Cat</t>
   </si>
   <si>
-    <t>Top Dog</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
+    <t>Prize Lines</t>
+  </si>
+  <si>
+    <t>Wild Cherries</t>
+  </si>
+  <si>
     <t>Scrabble</t>
   </si>
   <si>
-    <t>Wild Cherries</t>
-  </si>
-  <si>
-    <t>Prize Lines</t>
-  </si>
-  <si>
-    <t>Combo Play</t>
+    <t>Super Magic 8 Ball</t>
+  </si>
+  <si>
+    <t>Cashword Connect Bonus</t>
+  </si>
+  <si>
+    <t>Path to Riches</t>
   </si>
   <si>
     <t>Cool Cashword</t>
   </si>
   <si>
-    <t>Super Magic 8 Ball</t>
-  </si>
-  <si>
-    <t>Path to Riches</t>
-  </si>
-  <si>
-    <t>Cashword Connect Bonus</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>Cash X20</t>
   </si>
   <si>
-    <t>Grand Money</t>
-  </si>
-  <si>
     <t>$500,000 Holiday Magic</t>
   </si>
   <si>
@@ -209,48 +200,39 @@
     <t>The Price is Right</t>
   </si>
   <si>
+    <t>$1,000,000 Jackpot</t>
+  </si>
+  <si>
+    <t>Diamonds &amp; Gold</t>
+  </si>
+  <si>
+    <t>Double Triple Cashword</t>
+  </si>
+  <si>
+    <t>1236, 1348</t>
+  </si>
+  <si>
+    <t>Wild Numbers</t>
+  </si>
+  <si>
+    <t>Bonus 7</t>
+  </si>
+  <si>
+    <t>Emerald Green 8's</t>
+  </si>
+  <si>
+    <t>20X The Bills</t>
+  </si>
+  <si>
     <t>Bring On The Bens</t>
   </si>
   <si>
-    <t>$1,000,000 Jackpot</t>
-  </si>
-  <si>
-    <t>Wild Numbers</t>
-  </si>
-  <si>
     <t>$1,000,000 Hold 'Em Poker</t>
   </si>
   <si>
-    <t>20X The Bills</t>
-  </si>
-  <si>
     <t>Fabulous 5s</t>
   </si>
   <si>
-    <t>Bonus 7</t>
-  </si>
-  <si>
-    <t>Emerald Green 8's</t>
-  </si>
-  <si>
-    <t>$1,000,000 Double Sided Dollars</t>
-  </si>
-  <si>
-    <t>Diamonds &amp; Gold</t>
-  </si>
-  <si>
-    <t>NEW YORK POKER</t>
-  </si>
-  <si>
-    <t>551,  714</t>
-  </si>
-  <si>
-    <t>Double Triple Cashword</t>
-  </si>
-  <si>
-    <t>1236, 1348</t>
-  </si>
-  <si>
     <t>Jumbo Bucks</t>
   </si>
   <si>
@@ -266,12 +248,24 @@
     <t>$10.00 Games</t>
   </si>
   <si>
-    <t>$3,000,000 Mayhem</t>
-  </si>
-  <si>
     <t>Set For The Holidays</t>
   </si>
   <si>
+    <t>Money Clip</t>
+  </si>
+  <si>
+    <t>$1,000,000 Cashword</t>
+  </si>
+  <si>
+    <t>1241, 1328</t>
+  </si>
+  <si>
+    <t>Set For Life</t>
+  </si>
+  <si>
+    <t>1212, 1313</t>
+  </si>
+  <si>
     <t>$3,000,000 Money Millionaire</t>
   </si>
   <si>
@@ -281,21 +275,6 @@
     <t>Fast $600</t>
   </si>
   <si>
-    <t>Money Clip</t>
-  </si>
-  <si>
-    <t>$1,000,000 Cashword</t>
-  </si>
-  <si>
-    <t>1241, 1328</t>
-  </si>
-  <si>
-    <t>Set For Life</t>
-  </si>
-  <si>
-    <t>1212, 1313</t>
-  </si>
-  <si>
     <t>Winner Cashword</t>
   </si>
   <si>
@@ -305,12 +284,6 @@
     <t>100X The Cash</t>
   </si>
   <si>
-    <t>$5,000,000 Bankroll</t>
-  </si>
-  <si>
-    <t>2019-01-04</t>
-  </si>
-  <si>
     <t>$10,000 A Week for Life</t>
   </si>
   <si>
@@ -329,7 +302,7 @@
     <t>$30.00 Games</t>
   </si>
   <si>
-    <t>$10,000,000 Cash</t>
+    <t>$10,000,000 Colossal Cash</t>
   </si>
   <si>
     <t>$350,000,000 Cash Spectacular</t>
@@ -671,7 +644,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,10 +703,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1318</v>
+        <v>1333</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -750,10 +723,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -770,10 +743,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1352</v>
+        <v>1381</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -790,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>1371</v>
+        <v>1347</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -809,11 +782,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>1268</v>
+      <c r="D7" t="s">
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1608</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -827,13 +800,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>1347</v>
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -847,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1352</v>
       </c>
       <c r="E9">
-        <v>2205</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -867,13 +840,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -887,13 +860,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
         <v>21</v>
       </c>
+      <c r="D11">
+        <v>1366</v>
+      </c>
       <c r="E11">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -910,13 +883,13 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="E12">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -924,19 +897,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>1268</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>1297</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -944,7 +917,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -964,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -984,16 +957,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16">
-        <v>1351</v>
+        <v>1380</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1004,16 +977,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17">
-        <v>1377</v>
+        <v>1297</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1024,16 +997,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18">
-        <v>1370</v>
+      <c r="D18" t="s">
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1044,16 +1017,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
         <v>31</v>
-      </c>
-      <c r="D19">
-        <v>1322</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1064,16 +1037,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20">
-        <v>1290</v>
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1084,16 +1057,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>1343</v>
+        <v>1290</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1104,16 +1077,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1124,10 +1097,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>1332</v>
@@ -1144,16 +1117,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>1343</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1164,16 +1137,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>1322</v>
       </c>
       <c r="E25">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1184,16 +1157,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1204,16 +1177,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
         <v>43</v>
       </c>
+      <c r="D27">
+        <v>1370</v>
+      </c>
       <c r="E27">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1224,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -1244,19 +1217,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29">
-        <v>1342</v>
+        <v>1301</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1264,16 +1237,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>47</v>
       </c>
       <c r="D30">
-        <v>1263</v>
+        <v>1357</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1284,16 +1257,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
         <v>48</v>
       </c>
       <c r="D31">
-        <v>1357</v>
+        <v>1263</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1304,16 +1277,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
       <c r="D32">
-        <v>1301</v>
+        <v>1376</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1324,16 +1297,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
       </c>
       <c r="D33">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1344,16 +1317,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>51</v>
       </c>
       <c r="D34">
-        <v>1361</v>
+        <v>1321</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1364,16 +1337,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>52</v>
       </c>
       <c r="D35">
-        <v>1376</v>
+        <v>1361</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1384,13 +1357,13 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <v>1321</v>
+        <v>1274</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1404,16 +1377,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D37">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1424,16 +1397,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
       <c r="D38">
-        <v>1274</v>
+        <v>1296</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1444,16 +1417,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>57</v>
       </c>
       <c r="D39">
-        <v>1331</v>
+        <v>1360</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1464,13 +1437,13 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
       </c>
       <c r="D40">
-        <v>1296</v>
+        <v>1316</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1484,13 +1457,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
         <v>59</v>
       </c>
       <c r="D41">
-        <v>1325</v>
+        <v>1338</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1504,16 +1477,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
       </c>
       <c r="D42">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1524,13 +1497,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>777</v>
       </c>
       <c r="D43">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1544,13 +1517,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44">
-        <v>1338</v>
+        <v>1288</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1564,16 +1537,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1584,16 +1557,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46">
-        <v>777</v>
-      </c>
-      <c r="D46">
-        <v>1319</v>
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1604,13 +1577,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1624,16 +1597,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D48">
-        <v>1288</v>
+        <v>1356</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1644,16 +1617,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D49">
-        <v>1375</v>
+        <v>1292</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1664,13 +1637,13 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D50">
-        <v>1336</v>
+        <v>1369</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1684,16 +1657,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D51">
-        <v>1369</v>
+        <v>1350</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1704,16 +1677,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D52">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1724,13 +1697,13 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D53">
-        <v>1356</v>
+        <v>1339</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1744,13 +1717,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D54">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1764,19 +1737,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D55">
-        <v>1320</v>
+        <v>1251</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1784,16 +1757,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56">
-        <v>1349</v>
+        <v>74</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1804,19 +1777,19 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D57">
+        <v>1359</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1824,16 +1797,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D58">
+        <v>1344</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1844,16 +1817,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59">
-        <v>1300</v>
+        <v>79</v>
+      </c>
+      <c r="D59" t="s">
+        <v>80</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1864,16 +1837,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60">
-        <v>1251</v>
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1884,16 +1857,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="D61">
+        <v>1374</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1904,19 +1877,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D62">
-        <v>1330</v>
+        <v>1365</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>17170</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1924,16 +1897,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D63">
-        <v>1359</v>
+        <v>1324</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>547</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1944,16 +1917,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D64">
-        <v>1374</v>
+        <v>1311</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -1964,16 +1937,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D65">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="E65">
-        <v>25094</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1984,16 +1957,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66">
-        <v>1324</v>
+        <v>89</v>
+      </c>
+      <c r="D66" t="s">
+        <v>90</v>
       </c>
       <c r="E66">
-        <v>657</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -2004,16 +1977,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D67">
-        <v>1344</v>
+        <v>1261</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -2024,16 +1997,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="D68">
+        <v>1355</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -2044,16 +2017,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="D69">
+        <v>1383</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2064,158 +2037,18 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D70">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71">
-        <v>1368</v>
-      </c>
-      <c r="E71">
-        <v>5</v>
-      </c>
-      <c r="F71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72">
-        <v>1315</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74">
-        <v>1261</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75">
-        <v>1355</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76">
-        <v>1270</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77">
-        <v>1299</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
         <v>9</v>
       </c>
     </row>
